--- a/HotSix_UnityProject/Assets/MJW/Data/UnitDatabase.xlsx
+++ b/HotSix_UnityProject/Assets/MJW/Data/UnitDatabase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\min\Projects\HotSix\HotSix_UnityProject\Assets\MJW\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HongJinHo\Documents\GitHub\HotSix\HotSix_UnityProject\Assets\MJW\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB81F188-D977-423A-8307-C7EBF473A6B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63ABB1C0-81B0-44A6-90A8-907815822851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="1810" windowWidth="24700" windowHeight="15370" xr2:uid="{C8C67E49-83DE-4577-B719-CD1A0B61A9C8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C8C67E49-83DE-4577-B719-CD1A0B61A9C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="38">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -175,6 +175,14 @@
   </si>
   <si>
     <t>u.cost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reeper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사신</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -316,16 +324,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -335,12 +349,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -657,666 +665,728 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B314BCB-E593-44EC-B286-CA3B7F6A6F0F}">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="T12" sqref="A3:T12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="1"/>
-    <col min="2" max="2" width="9.4140625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="10.1640625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="17.4140625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.6640625" style="1"/>
+    <col min="1" max="1" width="8.625" style="1"/>
+    <col min="2" max="2" width="9.375" style="1" customWidth="1"/>
+    <col min="3" max="4" width="10.125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="17.375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="5" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="2" t="s">
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="Q2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="R2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="S2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="T2" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A3" s="10">
-        <v>0</v>
-      </c>
-      <c r="B3" s="10">
-        <v>0</v>
-      </c>
-      <c r="C3" s="10">
-        <v>0</v>
-      </c>
-      <c r="D3" s="10">
-        <v>0</v>
-      </c>
-      <c r="E3" s="10">
-        <v>0</v>
-      </c>
-      <c r="F3" s="10">
-        <v>0</v>
-      </c>
-      <c r="G3" s="9">
-        <v>0</v>
-      </c>
-      <c r="H3" s="9">
-        <v>0</v>
-      </c>
-      <c r="I3" s="9">
-        <v>0</v>
-      </c>
-      <c r="J3" s="9">
-        <v>0</v>
-      </c>
-      <c r="K3" s="9">
-        <v>0</v>
-      </c>
-      <c r="L3" s="9">
-        <v>0</v>
-      </c>
-      <c r="M3" s="9">
-        <v>0</v>
-      </c>
-      <c r="N3" s="10">
-        <v>0</v>
-      </c>
-      <c r="O3" s="10">
-        <v>0</v>
-      </c>
-      <c r="P3" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="10">
-        <v>0</v>
-      </c>
-      <c r="R3" s="10">
-        <v>0</v>
-      </c>
-      <c r="S3" s="10">
-        <v>0</v>
-      </c>
-      <c r="T3" s="10">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0</v>
+      </c>
+      <c r="M3" s="4">
+        <v>0</v>
+      </c>
+      <c r="N3" s="5">
+        <v>0</v>
+      </c>
+      <c r="O3" s="5">
+        <v>0</v>
+      </c>
+      <c r="P3" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>0</v>
+      </c>
+      <c r="R3" s="5">
+        <v>0</v>
+      </c>
+      <c r="S3" s="5">
+        <v>0</v>
+      </c>
+      <c r="T3" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A4" s="10">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="4">
         <v>500</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="4">
         <v>120</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="4">
         <v>0.3</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="4">
         <v>1</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="4">
         <v>50</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="4">
         <v>2</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="4">
         <v>80</v>
       </c>
-      <c r="N4" s="10">
-        <v>0</v>
-      </c>
-      <c r="O4" s="10">
-        <v>0</v>
-      </c>
-      <c r="P4" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="10">
-        <v>0</v>
-      </c>
-      <c r="R4" s="10">
-        <v>0</v>
-      </c>
-      <c r="S4" s="10">
-        <v>0</v>
-      </c>
-      <c r="T4" s="10">
+      <c r="N4" s="5">
+        <v>0</v>
+      </c>
+      <c r="O4" s="5">
+        <v>0</v>
+      </c>
+      <c r="P4" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>0</v>
+      </c>
+      <c r="R4" s="5">
+        <v>0</v>
+      </c>
+      <c r="S4" s="5">
+        <v>0</v>
+      </c>
+      <c r="T4" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A5" s="10">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="4">
         <v>400</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="4">
         <v>110</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="4">
         <v>0.4</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="4">
         <v>1</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="4">
         <v>40</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="4">
         <v>4</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="4">
         <v>70</v>
       </c>
-      <c r="N5" s="10">
-        <v>0</v>
-      </c>
-      <c r="O5" s="10">
-        <v>0</v>
-      </c>
-      <c r="P5" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="10">
-        <v>0</v>
-      </c>
-      <c r="R5" s="10">
-        <v>0</v>
-      </c>
-      <c r="S5" s="10">
-        <v>0</v>
-      </c>
-      <c r="T5" s="10">
+      <c r="N5" s="5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="5">
+        <v>0</v>
+      </c>
+      <c r="P5" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>0</v>
+      </c>
+      <c r="R5" s="5">
+        <v>0</v>
+      </c>
+      <c r="S5" s="5">
+        <v>0</v>
+      </c>
+      <c r="T5" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A6" s="10">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
         <v>3</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="4">
         <v>200</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="4">
         <v>60</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="4">
         <v>1</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="4">
         <v>1</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="4">
         <v>20</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="4">
         <v>3</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="4">
         <v>30</v>
       </c>
-      <c r="N6" s="10">
-        <v>0</v>
-      </c>
-      <c r="O6" s="10">
-        <v>0</v>
-      </c>
-      <c r="P6" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="10">
-        <v>0</v>
-      </c>
-      <c r="R6" s="10">
-        <v>0</v>
-      </c>
-      <c r="S6" s="10">
-        <v>0</v>
-      </c>
-      <c r="T6" s="10">
+      <c r="N6" s="5">
+        <v>0</v>
+      </c>
+      <c r="O6" s="5">
+        <v>0</v>
+      </c>
+      <c r="P6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>0</v>
+      </c>
+      <c r="R6" s="5">
+        <v>0</v>
+      </c>
+      <c r="S6" s="5">
+        <v>0</v>
+      </c>
+      <c r="T6" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A7" s="10">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="4">
         <v>130</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="4">
         <v>70</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="4">
         <v>1.5</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="4">
         <v>0.7</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="4">
         <v>10</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L7" s="4">
         <v>5</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="4">
         <v>40</v>
       </c>
-      <c r="N7" s="10">
-        <v>0</v>
-      </c>
-      <c r="O7" s="10">
-        <v>0</v>
-      </c>
-      <c r="P7" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="10">
-        <v>0</v>
-      </c>
-      <c r="R7" s="10">
-        <v>0</v>
-      </c>
-      <c r="S7" s="10">
-        <v>0</v>
-      </c>
-      <c r="T7" s="10">
+      <c r="N7" s="5">
+        <v>0</v>
+      </c>
+      <c r="O7" s="5">
+        <v>0</v>
+      </c>
+      <c r="P7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>0</v>
+      </c>
+      <c r="R7" s="5">
+        <v>0</v>
+      </c>
+      <c r="S7" s="5">
+        <v>0</v>
+      </c>
+      <c r="T7" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A8" s="10">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
         <v>5</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="4">
         <v>150</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="4">
         <v>70</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="4">
         <v>1.2</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="4">
         <v>5</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="4">
         <v>5</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L8" s="4">
         <v>4</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M8" s="4">
         <v>45</v>
       </c>
-      <c r="N8" s="10">
-        <v>0</v>
-      </c>
-      <c r="O8" s="10">
-        <v>0</v>
-      </c>
-      <c r="P8" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="10">
-        <v>0</v>
-      </c>
-      <c r="R8" s="10">
-        <v>0</v>
-      </c>
-      <c r="S8" s="10">
-        <v>0</v>
-      </c>
-      <c r="T8" s="10">
+      <c r="N8" s="5">
+        <v>0</v>
+      </c>
+      <c r="O8" s="5">
+        <v>0</v>
+      </c>
+      <c r="P8" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>0</v>
+      </c>
+      <c r="R8" s="5">
+        <v>0</v>
+      </c>
+      <c r="S8" s="5">
+        <v>0</v>
+      </c>
+      <c r="T8" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A9" s="10">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
         <v>6</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="4">
         <v>250</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="4">
         <v>120</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="4">
         <v>0.5</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="4">
         <v>1.2</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="4">
         <v>30</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L9" s="4">
         <v>2</v>
       </c>
-      <c r="M9" s="9">
+      <c r="M9" s="4">
         <v>50</v>
       </c>
-      <c r="N9" s="10">
-        <v>0</v>
-      </c>
-      <c r="O9" s="10">
-        <v>0</v>
-      </c>
-      <c r="P9" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="10">
-        <v>0</v>
-      </c>
-      <c r="R9" s="10">
-        <v>0</v>
-      </c>
-      <c r="S9" s="10">
-        <v>0</v>
-      </c>
-      <c r="T9" s="10">
+      <c r="N9" s="5">
+        <v>0</v>
+      </c>
+      <c r="O9" s="5">
+        <v>0</v>
+      </c>
+      <c r="P9" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>0</v>
+      </c>
+      <c r="R9" s="5">
+        <v>0</v>
+      </c>
+      <c r="S9" s="5">
+        <v>0</v>
+      </c>
+      <c r="T9" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A10" s="10">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
         <v>7</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="4">
         <v>300</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="4">
         <v>100</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="4">
         <v>0.5</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="4">
         <v>1</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10" s="4">
         <v>15</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L10" s="4">
         <v>1.5</v>
       </c>
-      <c r="M10" s="9">
+      <c r="M10" s="4">
         <v>60</v>
       </c>
-      <c r="N10" s="10">
-        <v>0</v>
-      </c>
-      <c r="O10" s="10">
-        <v>0</v>
-      </c>
-      <c r="P10" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="10">
-        <v>0</v>
-      </c>
-      <c r="R10" s="10">
-        <v>0</v>
-      </c>
-      <c r="S10" s="10">
-        <v>0</v>
-      </c>
-      <c r="T10" s="10">
+      <c r="N10" s="5">
+        <v>0</v>
+      </c>
+      <c r="O10" s="5">
+        <v>0</v>
+      </c>
+      <c r="P10" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>0</v>
+      </c>
+      <c r="R10" s="5">
+        <v>0</v>
+      </c>
+      <c r="S10" s="5">
+        <v>0</v>
+      </c>
+      <c r="T10" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A11" s="10">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
         <v>8</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="9">
-        <v>0</v>
-      </c>
-      <c r="H11" s="9">
-        <v>0</v>
-      </c>
-      <c r="I11" s="9">
-        <v>0</v>
-      </c>
-      <c r="J11" s="9">
-        <v>0</v>
-      </c>
-      <c r="K11" s="9">
-        <v>0</v>
-      </c>
-      <c r="L11" s="9">
-        <v>0</v>
-      </c>
-      <c r="M11" s="9">
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0</v>
+      </c>
+      <c r="L11" s="4">
+        <v>0</v>
+      </c>
+      <c r="M11" s="4">
         <v>200</v>
       </c>
-      <c r="N11" s="10">
-        <v>0</v>
-      </c>
-      <c r="O11" s="10">
-        <v>0</v>
-      </c>
-      <c r="P11" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="10">
-        <v>0</v>
-      </c>
-      <c r="R11" s="10">
-        <v>0</v>
-      </c>
-      <c r="S11" s="10">
-        <v>0</v>
-      </c>
-      <c r="T11" s="10">
+      <c r="N11" s="5">
+        <v>0</v>
+      </c>
+      <c r="O11" s="5">
+        <v>0</v>
+      </c>
+      <c r="P11" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>0</v>
+      </c>
+      <c r="R11" s="5">
+        <v>0</v>
+      </c>
+      <c r="S11" s="5">
+        <v>0</v>
+      </c>
+      <c r="T11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="4">
+        <v>300</v>
+      </c>
+      <c r="H12" s="4">
+        <v>100</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J12" s="4">
+        <v>1</v>
+      </c>
+      <c r="K12" s="4">
+        <v>15</v>
+      </c>
+      <c r="L12" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="M12" s="4">
+        <v>60</v>
+      </c>
+      <c r="N12" s="5">
+        <v>0</v>
+      </c>
+      <c r="O12" s="5">
+        <v>0</v>
+      </c>
+      <c r="P12" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>0</v>
+      </c>
+      <c r="R12" s="5">
+        <v>0</v>
+      </c>
+      <c r="S12" s="5">
+        <v>0</v>
+      </c>
+      <c r="T12" s="5">
         <v>0</v>
       </c>
     </row>

--- a/HotSix_UnityProject/Assets/MJW/Data/UnitDatabase.xlsx
+++ b/HotSix_UnityProject/Assets/MJW/Data/UnitDatabase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HongJinHo\Documents\GitHub\HotSix\HotSix_UnityProject\Assets\MJW\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\min\Projects\HotSix\HotSix_UnityProject\Assets\MJW\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63ABB1C0-81B0-44A6-90A8-907815822851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E622A5-AEF9-4A3C-8F82-AC634DFF9EBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C8C67E49-83DE-4577-B719-CD1A0B61A9C8}"/>
+    <workbookView xWindow="4660" yWindow="3250" windowWidth="24700" windowHeight="15370" xr2:uid="{C8C67E49-83DE-4577-B719-CD1A0B61A9C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="39">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -183,6 +183,10 @@
   </si>
   <si>
     <t>사신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cool.d</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -665,22 +669,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B314BCB-E593-44EC-B286-CA3B7F6A6F0F}">
-  <dimension ref="A1:T12"/>
+  <dimension ref="A1:U12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T12" sqref="A3:T12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.625" style="1"/>
-    <col min="2" max="2" width="9.375" style="1" customWidth="1"/>
-    <col min="3" max="4" width="10.125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="17.375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.625" style="1"/>
+    <col min="1" max="1" width="8.58203125" style="1"/>
+    <col min="2" max="2" width="9.33203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="10.08203125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="17.33203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.58203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A1" s="8" t="s">
         <v>28</v>
       </c>
@@ -698,17 +702,18 @@
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="6"/>
+      <c r="O1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="7"/>
       <c r="P1" s="7"/>
       <c r="Q1" s="7"/>
       <c r="R1" s="7"/>
       <c r="S1" s="7"/>
       <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -748,29 +753,32 @@
       <c r="M2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="S2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="T2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A3" s="5">
         <v>0</v>
       </c>
@@ -810,7 +818,7 @@
       <c r="M3" s="4">
         <v>0</v>
       </c>
-      <c r="N3" s="5">
+      <c r="N3" s="4">
         <v>0</v>
       </c>
       <c r="O3" s="5">
@@ -831,8 +839,11 @@
       <c r="T3" s="5">
         <v>0</v>
       </c>
+      <c r="U3" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -872,8 +883,8 @@
       <c r="M4" s="4">
         <v>80</v>
       </c>
-      <c r="N4" s="5">
-        <v>0</v>
+      <c r="N4" s="4">
+        <v>1</v>
       </c>
       <c r="O4" s="5">
         <v>0</v>
@@ -893,8 +904,11 @@
       <c r="T4" s="5">
         <v>0</v>
       </c>
+      <c r="U4" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -934,8 +948,8 @@
       <c r="M5" s="4">
         <v>70</v>
       </c>
-      <c r="N5" s="5">
-        <v>0</v>
+      <c r="N5" s="4">
+        <v>1</v>
       </c>
       <c r="O5" s="5">
         <v>0</v>
@@ -955,8 +969,11 @@
       <c r="T5" s="5">
         <v>0</v>
       </c>
+      <c r="U5" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -996,8 +1013,8 @@
       <c r="M6" s="4">
         <v>30</v>
       </c>
-      <c r="N6" s="5">
-        <v>0</v>
+      <c r="N6" s="4">
+        <v>1</v>
       </c>
       <c r="O6" s="5">
         <v>0</v>
@@ -1017,8 +1034,11 @@
       <c r="T6" s="5">
         <v>0</v>
       </c>
+      <c r="U6" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -1058,8 +1078,8 @@
       <c r="M7" s="4">
         <v>40</v>
       </c>
-      <c r="N7" s="5">
-        <v>0</v>
+      <c r="N7" s="4">
+        <v>1</v>
       </c>
       <c r="O7" s="5">
         <v>0</v>
@@ -1079,8 +1099,11 @@
       <c r="T7" s="5">
         <v>0</v>
       </c>
+      <c r="U7" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A8" s="5">
         <v>5</v>
       </c>
@@ -1120,8 +1143,8 @@
       <c r="M8" s="4">
         <v>45</v>
       </c>
-      <c r="N8" s="5">
-        <v>0</v>
+      <c r="N8" s="4">
+        <v>1</v>
       </c>
       <c r="O8" s="5">
         <v>0</v>
@@ -1141,8 +1164,11 @@
       <c r="T8" s="5">
         <v>0</v>
       </c>
+      <c r="U8" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A9" s="5">
         <v>6</v>
       </c>
@@ -1182,8 +1208,8 @@
       <c r="M9" s="4">
         <v>50</v>
       </c>
-      <c r="N9" s="5">
-        <v>0</v>
+      <c r="N9" s="4">
+        <v>1</v>
       </c>
       <c r="O9" s="5">
         <v>0</v>
@@ -1203,8 +1229,11 @@
       <c r="T9" s="5">
         <v>0</v>
       </c>
+      <c r="U9" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A10" s="5">
         <v>7</v>
       </c>
@@ -1244,8 +1273,8 @@
       <c r="M10" s="4">
         <v>60</v>
       </c>
-      <c r="N10" s="5">
-        <v>0</v>
+      <c r="N10" s="4">
+        <v>1</v>
       </c>
       <c r="O10" s="5">
         <v>0</v>
@@ -1265,8 +1294,11 @@
       <c r="T10" s="5">
         <v>0</v>
       </c>
+      <c r="U10" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A11" s="5">
         <v>8</v>
       </c>
@@ -1306,8 +1338,8 @@
       <c r="M11" s="4">
         <v>200</v>
       </c>
-      <c r="N11" s="5">
-        <v>0</v>
+      <c r="N11" s="4">
+        <v>1</v>
       </c>
       <c r="O11" s="5">
         <v>0</v>
@@ -1327,8 +1359,11 @@
       <c r="T11" s="5">
         <v>0</v>
       </c>
+      <c r="U11" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1348,28 +1383,28 @@
         <v>31</v>
       </c>
       <c r="G12" s="4">
-        <v>300</v>
+        <v>444</v>
       </c>
       <c r="H12" s="4">
-        <v>100</v>
+        <v>444</v>
       </c>
       <c r="I12" s="4">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="J12" s="4">
         <v>1</v>
       </c>
       <c r="K12" s="4">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="L12" s="4">
         <v>1.5</v>
       </c>
       <c r="M12" s="4">
-        <v>60</v>
-      </c>
-      <c r="N12" s="5">
-        <v>0</v>
+        <v>4444</v>
+      </c>
+      <c r="N12" s="4">
+        <v>4</v>
       </c>
       <c r="O12" s="5">
         <v>0</v>
@@ -1387,13 +1422,16 @@
         <v>0</v>
       </c>
       <c r="T12" s="5">
+        <v>0</v>
+      </c>
+      <c r="U12" s="5">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="G1:M1"/>
-    <mergeCell ref="N1:T1"/>
+    <mergeCell ref="G1:N1"/>
+    <mergeCell ref="O1:U1"/>
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/HotSix_UnityProject/Assets/MJW/Data/UnitDatabase.xlsx
+++ b/HotSix_UnityProject/Assets/MJW/Data/UnitDatabase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HongJinHo\Documents\GitHub\HotSix\HotSix_UnityProject\Assets\MJW\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63ABB1C0-81B0-44A6-90A8-907815822851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{712DFF2F-9792-4A00-9900-5CB7ABF2E4FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C8C67E49-83DE-4577-B719-CD1A0B61A9C8}"/>
+    <workbookView xWindow="3030" yWindow="3030" windowWidth="21600" windowHeight="11385" xr2:uid="{C8C67E49-83DE-4577-B719-CD1A0B61A9C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -178,11 +178,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Reeper</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>사신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reaper</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -668,7 +668,7 @@
   <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T12" sqref="A3:T12"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1333,10 +1333,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>30</v>

--- a/HotSix_UnityProject/Assets/MJW/Data/UnitDatabase.xlsx
+++ b/HotSix_UnityProject/Assets/MJW/Data/UnitDatabase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\min\Projects\HotSix\HotSix_UnityProject\Assets\MJW\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E622A5-AEF9-4A3C-8F82-AC634DFF9EBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91FE9F55-3F73-4862-ADDF-54D13DED866D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4660" yWindow="3250" windowWidth="24700" windowHeight="15370" xr2:uid="{C8C67E49-83DE-4577-B719-CD1A0B61A9C8}"/>
+    <workbookView xWindow="2490" yWindow="5220" windowWidth="24700" windowHeight="15370" xr2:uid="{C8C67E49-83DE-4577-B719-CD1A0B61A9C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -672,7 +672,7 @@
   <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1067,7 +1067,7 @@
         <v>1.5</v>
       </c>
       <c r="J7" s="4">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="K7" s="4">
         <v>10</v>

--- a/HotSix_UnityProject/Assets/MJW/Data/UnitDatabase.xlsx
+++ b/HotSix_UnityProject/Assets/MJW/Data/UnitDatabase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\min\Projects\HotSix\HotSix_UnityProject\Assets\MJW\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91FE9F55-3F73-4862-ADDF-54D13DED866D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9178DB9-FDB3-4BDC-9346-675D55DAC771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2490" yWindow="5220" windowWidth="24700" windowHeight="15370" xr2:uid="{C8C67E49-83DE-4577-B719-CD1A0B61A9C8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{C8C67E49-83DE-4577-B719-CD1A0B61A9C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -672,7 +672,7 @@
   <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -887,7 +887,7 @@
         <v>1</v>
       </c>
       <c r="O4" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P4" s="5">
         <v>0</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="U4" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.45">
@@ -952,7 +952,7 @@
         <v>1</v>
       </c>
       <c r="O5" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P5" s="5">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="U5" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.45">
@@ -1017,7 +1017,7 @@
         <v>1</v>
       </c>
       <c r="O6" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P6" s="5">
         <v>0</v>
@@ -1035,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="U6" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.45">
@@ -1082,7 +1082,7 @@
         <v>1</v>
       </c>
       <c r="O7" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P7" s="5">
         <v>0</v>
@@ -1100,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="U7" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.45">
@@ -1147,7 +1147,7 @@
         <v>1</v>
       </c>
       <c r="O8" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P8" s="5">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="U8" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.45">
@@ -1212,7 +1212,7 @@
         <v>1</v>
       </c>
       <c r="O9" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P9" s="5">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="U9" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.45">
@@ -1277,7 +1277,7 @@
         <v>1</v>
       </c>
       <c r="O10" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P10" s="5">
         <v>0</v>
@@ -1295,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="U10" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.45">
@@ -1342,7 +1342,7 @@
         <v>1</v>
       </c>
       <c r="O11" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P11" s="5">
         <v>0</v>
@@ -1360,7 +1360,7 @@
         <v>0</v>
       </c>
       <c r="U11" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.45">
@@ -1407,7 +1407,7 @@
         <v>4</v>
       </c>
       <c r="O12" s="5">
-        <v>0</v>
+        <v>444</v>
       </c>
       <c r="P12" s="5">
         <v>0</v>
@@ -1425,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="U12" s="5">
-        <v>0</v>
+        <v>4444</v>
       </c>
     </row>
   </sheetData>
